--- a/biology/Histoire de la zoologie et de la botanique/Ian_Cecil_Robert_Rowley/Ian_Cecil_Robert_Rowley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ian_Cecil_Robert_Rowley/Ian_Cecil_Robert_Rowley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ian Cecil Robert Rowley (1926 - 29 mai 2009) est un ornithologue australien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Travaillant pour le CSIRO, ses travaux sur les maluridés sont bien connus. Il fait partie de la Royal Australasian Ornithologists Union depuis 1989 et a dirigé sa publication, Emu, de 1990 à 2000. Il est le premier récipiendaire de la médaille D.L. Servent en 1991, reconnaissant la qualité de ses travaux ornithologiques.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1975 : Bird Live. Australian Naturalist Library. Collins : Sydney.
 1990 : Behavioural Ecology of the Galah, Eolophus roseicapillus, in the Wheatbelt of Western Australia. Surrey Beatty &amp; Sons Pty Ltd : Chipping Norton.
